--- a/backend/output.xlsx
+++ b/backend/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>age</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>sex</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sites</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tstage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>nlr</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pmr</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>plr</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>lmr</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>sii</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>nstage</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ene</t>
         </is>
@@ -497,81 +502,165 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.3</v>
-      </c>
       <c r="G2" t="n">
-        <v>473.5</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>180.1</v>
+        <v>234.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>190.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2494</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>3.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>902</v>
       </c>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>34</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>85</v>
-      </c>
-      <c r="H3" t="n">
-        <v>120</v>
-      </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>345</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>456</v>
       </c>
       <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.3443</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.34443</v>
+      </c>
+      <c r="H4" t="n">
+        <v>34.3443</v>
+      </c>
+      <c r="I4" t="n">
+        <v>345.3443</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.343</v>
+      </c>
+      <c r="K4" t="n">
+        <v>456.3344</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" t="n">
+        <v>134</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34</v>
+      </c>
+      <c r="K5" t="n">
+        <v>34</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/output.xlsx
+++ b/backend/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>120</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>451</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
